--- a/Models/ISE_NLSY97_Religion/ISE_NLSY97_Religion.xlsx
+++ b/Models/ISE_NLSY97_Religion/ISE_NLSY97_Religion.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3-level" sheetId="1" state="hidden" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="64">
   <si>
     <t>Fixed</t>
   </si>
@@ -24685,13 +24685,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Models (STD)"/>
+      <sheetName val="Models (VAR)"/>
       <sheetName val="Sheet1"/>
-      <sheetName val="Models (VAR)"/>
       <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
             <v>36.4</v>
@@ -25738,13 +25739,6 @@
           </cell>
           <cell r="C132">
             <v>7</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="46">
-          <cell r="AA46" t="str">
-            <v xml:space="preserve"> -2LL</v>
           </cell>
         </row>
       </sheetData>
@@ -26041,6 +26035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AE10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -27061,10 +27056,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28238,10 +28234,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28800,6 +28797,9 @@
       <c r="V13" s="28"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="B14" s="46">
         <f>'level-2'!B14</f>
         <v>4.4010049342080002</v>
@@ -29221,6 +29221,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:V21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -29599,6 +29600,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A3:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Models/ISE_NLSY97_Religion/ISE_NLSY97_Religion.xlsx
+++ b/Models/ISE_NLSY97_Religion/ISE_NLSY97_Religion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3-level" sheetId="1" state="hidden" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="64">
   <si>
     <t>Fixed</t>
   </si>
@@ -255,14 +255,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -541,7 +540,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -782,9 +781,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27559,29 +27559,29 @@
       <c r="A11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="97">
+      <c r="B11" s="98">
         <v>3.0311024203069699</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98">
         <v>4.0823782710915903</v>
       </c>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
       <c r="V11" s="28"/>
       <c r="W11" s="41"/>
       <c r="X11" s="28"/>
@@ -27590,30 +27590,30 @@
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B12" s="98">
         <v>3.0311024203070001</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97">
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98">
         <v>1.6169753541909999</v>
       </c>
-      <c r="K12" s="97">
+      <c r="K12" s="98">
         <v>2.4654029169010001</v>
       </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
       <c r="V12" s="28"/>
       <c r="W12" s="41">
         <f>K12/(SUM(J12:K12))</f>
@@ -27625,33 +27625,33 @@
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="97">
+      <c r="B13" s="98">
         <v>4.4376359132300003</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C13" s="98">
         <v>-5.0219277328270003E-3</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97">
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98">
         <v>1.578090435077</v>
       </c>
-      <c r="K13" s="97">
+      <c r="K13" s="98">
         <v>2.4661321173049999</v>
       </c>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
       <c r="V13" s="28"/>
       <c r="W13" s="41"/>
     </row>
@@ -27659,185 +27659,185 @@
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B14" s="98">
         <v>4.4010049342080002</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="98">
         <v>-5.0233648031029997E-3</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97">
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98">
         <v>1.2718412203739999</v>
       </c>
-      <c r="K14" s="97">
+      <c r="K14" s="98">
         <v>17.585668558919998</v>
       </c>
-      <c r="L14" s="97">
+      <c r="L14" s="98">
         <v>-5.4736472643309997E-2</v>
       </c>
-      <c r="M14" s="97">
+      <c r="M14" s="98">
         <v>1.9837445931900001E-4</v>
       </c>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
       <c r="V14" s="28"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -28237,7 +28237,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -28760,7 +28760,7 @@
         <f>'level-2'!B12</f>
         <v>3.0311024203070001</v>
       </c>
-      <c r="C12" s="97"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="46"/>
       <c r="J12" s="46">
         <f>SQRT('level-2'!J12)</f>
@@ -28782,7 +28782,7 @@
         <f>'level-2'!B13</f>
         <v>4.4376359132300003</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="96">
         <f>'level-2'!C13</f>
         <v>-5.0219277328270003E-3</v>
       </c>
@@ -28804,7 +28804,7 @@
         <f>'level-2'!B14</f>
         <v>4.4010049342080002</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="96">
         <f>'level-2'!C14</f>
         <v>-5.0233648031029997E-3</v>
       </c>
@@ -28812,7 +28812,7 @@
         <f>SQRT('level-2'!J14)</f>
         <v>1.1277593805302619</v>
       </c>
-      <c r="K14" s="96">
+      <c r="K14" s="97">
         <f>SQRT('level-2'!K14)</f>
         <v>4.1935269832111484</v>
       </c>
@@ -28820,7 +28820,7 @@
         <f>'level-2'!L14/(SQRT('level-2'!K14)*SQRT('level-2'!M14))</f>
         <v>-0.92673269913978573</v>
       </c>
-      <c r="M14" s="96">
+      <c r="M14" s="97">
         <f>SQRT('level-2'!M14)</f>
         <v>1.4084546826895071E-2</v>
       </c>
@@ -29222,10 +29222,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:V21"/>
+  <dimension ref="B1:V28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29539,7 +29539,7 @@
       <c r="U15" s="22"/>
       <c r="V15" s="22"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="46">
         <f>C15</f>
         <v>4.1935269832111484</v>
@@ -29548,19 +29548,19 @@
       <c r="E18" s="47"/>
       <c r="F18" s="46"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="48">
         <f>D15</f>
         <v>-0.92673269913978562</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="99">
         <f>E15</f>
         <v>1.4084546826895071E-2</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="46"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="46">
         <f>F15</f>
         <v>0</v>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="F20" s="46"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="46">
         <f>I15</f>
         <v>0</v>
@@ -29590,6 +29590,78 @@
       </c>
       <c r="F21" s="46">
         <f>L15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="46">
+        <f>SQRT(I25)</f>
+        <v>4.1935269832117061</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="46"/>
+      <c r="H25" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="15">
+        <v>17.58566855892467</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="48">
+        <f>I26/(SQRT(I25*I27))</f>
+        <v>-0.9267326991395991</v>
+      </c>
+      <c r="D26" s="99">
+        <f>SQRT(I27)</f>
+        <v>1.4084546826896471E-2</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="46"/>
+      <c r="H26" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="15">
+        <v>-5.473647264331169E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="46">
+        <f>H23</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="49">
+        <f>I23</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="46">
+        <f>J23</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="H27" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1.9837445931903945E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="46">
+        <f>K23</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="49">
+        <f>L23</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="46">
+        <f>M23</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="46">
+        <f>N23</f>
         <v>0</v>
       </c>
     </row>
